--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H2">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I2">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J2">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.528879784986739</v>
+        <v>0.3508273333333333</v>
       </c>
       <c r="N2">
-        <v>0.528879784986739</v>
+        <v>1.052482</v>
       </c>
       <c r="O2">
-        <v>0.2578681434003056</v>
+        <v>0.1248367457344541</v>
       </c>
       <c r="P2">
-        <v>0.2578681434003056</v>
+        <v>0.1598401480061556</v>
       </c>
       <c r="Q2">
-        <v>2.283131630360123</v>
+        <v>1.552714415643334</v>
       </c>
       <c r="R2">
-        <v>2.283131630360123</v>
+        <v>13.97442974079</v>
       </c>
       <c r="S2">
-        <v>0.1250289046177366</v>
+        <v>0.0576725920937996</v>
       </c>
       <c r="T2">
-        <v>0.1250289046177366</v>
+        <v>0.07506451049607937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H3">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I3">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J3">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.52209005569546</v>
+        <v>0.6131856666666667</v>
       </c>
       <c r="N3">
-        <v>1.52209005569546</v>
+        <v>1.839557</v>
       </c>
       <c r="O3">
-        <v>0.7421318565996946</v>
+        <v>0.2181930992387853</v>
       </c>
       <c r="P3">
-        <v>0.7421318565996946</v>
+        <v>0.2793730088930353</v>
       </c>
       <c r="Q3">
-        <v>6.570740741210294</v>
+        <v>2.713876980601667</v>
       </c>
       <c r="R3">
-        <v>6.570740741210294</v>
+        <v>24.424892825415</v>
       </c>
       <c r="S3">
-        <v>0.3598270491618898</v>
+        <v>0.1008017433973158</v>
       </c>
       <c r="T3">
-        <v>0.3598270491618898</v>
+        <v>0.1311998169418919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.12370466321776</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H4">
-        <v>4.12370466321776</v>
+        <v>13.277595</v>
       </c>
       <c r="I4">
-        <v>0.4631549431818207</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J4">
-        <v>0.4631549431818207</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.528879784986739</v>
+        <v>1.846276</v>
       </c>
       <c r="N4">
-        <v>0.528879784986739</v>
+        <v>3.692552</v>
       </c>
       <c r="O4">
-        <v>0.2578681434003056</v>
+        <v>0.6569701550267606</v>
       </c>
       <c r="P4">
-        <v>0.2578681434003056</v>
+        <v>0.5607868431008092</v>
       </c>
       <c r="Q4">
-        <v>2.180944035631422</v>
+        <v>8.171368328740002</v>
       </c>
       <c r="R4">
-        <v>2.180944035631422</v>
+        <v>49.02820997244001</v>
       </c>
       <c r="S4">
-        <v>0.1194329053049701</v>
+        <v>0.3035097682637004</v>
       </c>
       <c r="T4">
-        <v>0.1194329053049701</v>
+        <v>0.2633580511223174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H5">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I5">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J5">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.52209005569546</v>
+        <v>0.3508273333333333</v>
       </c>
       <c r="N5">
-        <v>1.52209005569546</v>
+        <v>1.052482</v>
       </c>
       <c r="O5">
-        <v>0.7421318565996946</v>
+        <v>0.1248367457344541</v>
       </c>
       <c r="P5">
-        <v>0.7421318565996946</v>
+        <v>0.1598401480061556</v>
       </c>
       <c r="Q5">
-        <v>6.276649860508748</v>
+        <v>1.644259300003333</v>
       </c>
       <c r="R5">
-        <v>6.276649860508748</v>
+        <v>14.79833370003</v>
       </c>
       <c r="S5">
-        <v>0.3437220378768507</v>
+        <v>0.06107285084117577</v>
       </c>
       <c r="T5">
-        <v>0.3437220378768507</v>
+        <v>0.07949016138440221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.462885498239035</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H6">
-        <v>0.462885498239035</v>
+        <v>14.060415</v>
       </c>
       <c r="I6">
-        <v>0.05198910303855286</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J6">
-        <v>0.05198910303855286</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.528879784986739</v>
+        <v>0.6131856666666667</v>
       </c>
       <c r="N6">
-        <v>0.528879784986739</v>
+        <v>1.839557</v>
       </c>
       <c r="O6">
-        <v>0.2578681434003056</v>
+        <v>0.2181930992387853</v>
       </c>
       <c r="P6">
-        <v>0.2578681434003056</v>
+        <v>0.2793730088930353</v>
       </c>
       <c r="Q6">
-        <v>0.2448107827821404</v>
+        <v>2.873881648461667</v>
       </c>
       <c r="R6">
-        <v>0.2448107827821404</v>
+        <v>25.864934836155</v>
       </c>
       <c r="S6">
-        <v>0.01340633347759881</v>
+        <v>0.1067448091984858</v>
       </c>
       <c r="T6">
-        <v>0.01340633347759881</v>
+        <v>0.1389350913419961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.462885498239035</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
-        <v>0.462885498239035</v>
+        <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.05198910303855286</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J7">
-        <v>0.05198910303855286</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.52209005569546</v>
+        <v>1.846276</v>
       </c>
       <c r="N7">
-        <v>1.52209005569546</v>
+        <v>3.692552</v>
       </c>
       <c r="O7">
-        <v>0.7421318565996946</v>
+        <v>0.6569701550267606</v>
       </c>
       <c r="P7">
-        <v>0.7421318565996946</v>
+        <v>0.5607868431008092</v>
       </c>
       <c r="Q7">
-        <v>0.7045534137952736</v>
+        <v>8.653135588180001</v>
       </c>
       <c r="R7">
-        <v>0.7045534137952736</v>
+        <v>51.91881352908</v>
       </c>
       <c r="S7">
-        <v>0.03858276956095406</v>
+        <v>0.3214040869857422</v>
       </c>
       <c r="T7">
-        <v>0.03858276956095406</v>
+        <v>0.278885106253881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.467454</v>
+      </c>
+      <c r="H8">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J8">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3508273333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.052482</v>
+      </c>
+      <c r="O8">
+        <v>0.1248367457344541</v>
+      </c>
+      <c r="P8">
+        <v>0.1598401480061556</v>
+      </c>
+      <c r="Q8">
+        <v>0.163995640276</v>
+      </c>
+      <c r="R8">
+        <v>0.983973841656</v>
+      </c>
+      <c r="S8">
+        <v>0.006091302799478745</v>
+      </c>
+      <c r="T8">
+        <v>0.005285476125674007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.467454</v>
+      </c>
+      <c r="H9">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J9">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6131856666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.839557</v>
+      </c>
+      <c r="O9">
+        <v>0.2181930992387853</v>
+      </c>
+      <c r="P9">
+        <v>0.2793730088930353</v>
+      </c>
+      <c r="Q9">
+        <v>0.286636092626</v>
+      </c>
+      <c r="R9">
+        <v>1.719816555756</v>
+      </c>
+      <c r="S9">
+        <v>0.01064654664298365</v>
+      </c>
+      <c r="T9">
+        <v>0.009238100609147233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.467454</v>
+      </c>
+      <c r="H10">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J10">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.846276</v>
+      </c>
+      <c r="N10">
+        <v>3.692552</v>
+      </c>
+      <c r="O10">
+        <v>0.6569701550267606</v>
+      </c>
+      <c r="P10">
+        <v>0.5607868431008092</v>
+      </c>
+      <c r="Q10">
+        <v>0.863049101304</v>
+      </c>
+      <c r="R10">
+        <v>3.452196405216</v>
+      </c>
+      <c r="S10">
+        <v>0.03205629977731805</v>
+      </c>
+      <c r="T10">
+        <v>0.01854368572461078</v>
       </c>
     </row>
   </sheetData>
